--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H2">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.63244646469018</v>
+        <v>6.708176333333333</v>
       </c>
       <c r="N2">
-        <v>6.63244646469018</v>
+        <v>20.124529</v>
       </c>
       <c r="O2">
-        <v>0.8204660644057592</v>
+        <v>0.4356329228871633</v>
       </c>
       <c r="P2">
-        <v>0.8204660644057592</v>
+        <v>0.4356329228871633</v>
       </c>
       <c r="Q2">
-        <v>78.04291190832177</v>
+        <v>247.529311881049</v>
       </c>
       <c r="R2">
-        <v>78.04291190832177</v>
+        <v>2227.763806929441</v>
       </c>
       <c r="S2">
-        <v>0.4085500083158249</v>
+        <v>0.3153523050130979</v>
       </c>
       <c r="T2">
-        <v>0.4085500083158249</v>
+        <v>0.3153523050130979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H3">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.4513083088773</v>
+        <v>6.789877333333333</v>
       </c>
       <c r="N3">
-        <v>1.4513083088773</v>
+        <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.1795339355942407</v>
+        <v>0.4409386339573907</v>
       </c>
       <c r="P3">
-        <v>0.1795339355942407</v>
+        <v>0.4409386339573907</v>
       </c>
       <c r="Q3">
-        <v>17.07730731103873</v>
+        <v>250.544049613792</v>
       </c>
       <c r="R3">
-        <v>17.07730731103873</v>
+        <v>2254.896446524128</v>
       </c>
       <c r="S3">
-        <v>0.08939868943040828</v>
+        <v>0.3191930804178602</v>
       </c>
       <c r="T3">
-        <v>0.08939868943040828</v>
+        <v>0.3191930804178602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.26149754195757</v>
+        <v>36.899643</v>
       </c>
       <c r="H4">
-        <v>3.26149754195757</v>
+        <v>110.698929</v>
       </c>
       <c r="I4">
-        <v>0.1380199749912063</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J4">
-        <v>0.1380199749912063</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.63244646469018</v>
+        <v>1.900636333333334</v>
       </c>
       <c r="N4">
-        <v>6.63244646469018</v>
+        <v>5.701909000000001</v>
       </c>
       <c r="O4">
-        <v>0.8204660644057592</v>
+        <v>0.1234284431554459</v>
       </c>
       <c r="P4">
-        <v>0.8204660644057592</v>
+        <v>0.1234284431554459</v>
       </c>
       <c r="Q4">
-        <v>21.6317078417522</v>
+        <v>70.132802172829</v>
       </c>
       <c r="R4">
-        <v>21.6317078417522</v>
+        <v>631.195219555461</v>
       </c>
       <c r="S4">
-        <v>0.1132407056904164</v>
+        <v>0.0893491791099771</v>
       </c>
       <c r="T4">
-        <v>0.1132407056904164</v>
+        <v>0.0893491791099771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H5">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.4513083088773</v>
+        <v>6.708176333333333</v>
       </c>
       <c r="N5">
-        <v>1.4513083088773</v>
+        <v>20.124529</v>
       </c>
       <c r="O5">
-        <v>0.1795339355942407</v>
+        <v>0.4356329228871633</v>
       </c>
       <c r="P5">
-        <v>0.1795339355942407</v>
+        <v>0.4356329228871633</v>
       </c>
       <c r="Q5">
-        <v>4.733438482025911</v>
+        <v>22.63888094508367</v>
       </c>
       <c r="R5">
-        <v>4.733438482025911</v>
+        <v>203.749928505753</v>
       </c>
       <c r="S5">
-        <v>0.02477926930078995</v>
+        <v>0.02884193081900543</v>
       </c>
       <c r="T5">
-        <v>0.02477926930078995</v>
+        <v>0.02884193081900543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.60228585853633</v>
+        <v>3.374819</v>
       </c>
       <c r="H6">
-        <v>8.60228585853633</v>
+        <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J6">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.63244646469018</v>
+        <v>6.789877333333333</v>
       </c>
       <c r="N6">
-        <v>6.63244646469018</v>
+        <v>20.369632</v>
       </c>
       <c r="O6">
-        <v>0.8204660644057592</v>
+        <v>0.4409386339573907</v>
       </c>
       <c r="P6">
-        <v>0.8204660644057592</v>
+        <v>0.4409386339573907</v>
       </c>
       <c r="Q6">
-        <v>57.05420043070362</v>
+        <v>22.91460703220267</v>
       </c>
       <c r="R6">
-        <v>57.05420043070362</v>
+        <v>206.231463289824</v>
       </c>
       <c r="S6">
-        <v>0.2986753503995178</v>
+        <v>0.02919320581130615</v>
       </c>
       <c r="T6">
-        <v>0.2986753503995178</v>
+        <v>0.02919320581130615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.60228585853633</v>
+        <v>3.374819</v>
       </c>
       <c r="H7">
-        <v>8.60228585853633</v>
+        <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J7">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.4513083088773</v>
+        <v>1.900636333333334</v>
       </c>
       <c r="N7">
-        <v>1.4513083088773</v>
+        <v>5.701909000000001</v>
       </c>
       <c r="O7">
-        <v>0.1795339355942407</v>
+        <v>0.1234284431554459</v>
       </c>
       <c r="P7">
-        <v>0.1795339355942407</v>
+        <v>0.1234284431554459</v>
       </c>
       <c r="Q7">
-        <v>12.48456894183147</v>
+        <v>6.414303609823667</v>
       </c>
       <c r="R7">
-        <v>12.48456894183147</v>
+        <v>57.728732488413</v>
       </c>
       <c r="S7">
-        <v>0.06535597686304247</v>
+        <v>0.008171821805830311</v>
       </c>
       <c r="T7">
-        <v>0.06535597686304247</v>
+        <v>0.008171821805830311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.699319</v>
+      </c>
+      <c r="H8">
+        <v>32.097957</v>
+      </c>
+      <c r="I8">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J8">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>6.708176333333333</v>
+      </c>
+      <c r="N8">
+        <v>20.124529</v>
+      </c>
+      <c r="O8">
+        <v>0.4356329228871633</v>
+      </c>
+      <c r="P8">
+        <v>0.4356329228871633</v>
+      </c>
+      <c r="Q8">
+        <v>71.77291849858368</v>
+      </c>
+      <c r="R8">
+        <v>645.9562664872529</v>
+      </c>
+      <c r="S8">
+        <v>0.09143868705505996</v>
+      </c>
+      <c r="T8">
+        <v>0.09143868705505996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.699319</v>
+      </c>
+      <c r="H9">
+        <v>32.097957</v>
+      </c>
+      <c r="I9">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J9">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.789877333333333</v>
+      </c>
+      <c r="N9">
+        <v>20.369632</v>
+      </c>
+      <c r="O9">
+        <v>0.4409386339573907</v>
+      </c>
+      <c r="P9">
+        <v>0.4409386339573907</v>
+      </c>
+      <c r="Q9">
+        <v>72.64706356020267</v>
+      </c>
+      <c r="R9">
+        <v>653.823572041824</v>
+      </c>
+      <c r="S9">
+        <v>0.09255234772822436</v>
+      </c>
+      <c r="T9">
+        <v>0.09255234772822436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.699319</v>
+      </c>
+      <c r="H10">
+        <v>32.097957</v>
+      </c>
+      <c r="I10">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J10">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.900636333333334</v>
+      </c>
+      <c r="N10">
+        <v>5.701909000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1234284431554459</v>
+      </c>
+      <c r="P10">
+        <v>0.1234284431554459</v>
+      </c>
+      <c r="Q10">
+        <v>20.33551443332367</v>
+      </c>
+      <c r="R10">
+        <v>183.019629899913</v>
+      </c>
+      <c r="S10">
+        <v>0.0259074422396385</v>
+      </c>
+      <c r="T10">
+        <v>0.0259074422396385</v>
       </c>
     </row>
   </sheetData>
